--- a/src/databases/safety_factors.xlsx
+++ b/src/databases/safety_factors.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="port_sf" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Terminal dock size area (m²)</t>
   </si>
@@ -584,7 +584,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,9 +819,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="1" t="s">
         <v>22</v>

--- a/src/databases/safety_factors.xlsx
+++ b/src/databases/safety_factors.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="port_sf" sheetId="4" r:id="rId1"/>
     <sheet name="vessel_sf" sheetId="1" r:id="rId2"/>
     <sheet name="eq_sf" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -263,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -300,6 +300,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,10 +647,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +756,7 @@
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -783,6 +795,12 @@
         <v>0.2</v>
       </c>
       <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -793,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
